--- a/Assets/Data/PropertyData/DicePropertyData.xlsx
+++ b/Assets/Data/PropertyData/DicePropertyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGameSrcCode\DiceKnight\Assets\Data\PropertyData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34988878-F5F7-4B65-BB61-004CBB72BDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC3E8C2-8394-4910-B0DD-0749C4DA2AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="1680" windowWidth="19400" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
